--- a/Code/Results/Cases/Case_4_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_176/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.69481183477872</v>
+        <v>17.05853031862614</v>
       </c>
       <c r="C2">
-        <v>11.70134423282064</v>
+        <v>9.359861101404508</v>
       </c>
       <c r="D2">
-        <v>7.018919221962395</v>
+        <v>6.051771177070816</v>
       </c>
       <c r="E2">
-        <v>11.69759542464741</v>
+        <v>9.299332100212366</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.116743760187939</v>
+        <v>3.739354338117113</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.57621664374524</v>
+        <v>16.50047868558372</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.53678044155289</v>
+        <v>17.20843302999209</v>
       </c>
       <c r="N2">
-        <v>21.54175693721791</v>
+        <v>25.70560317131548</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.55092999432427</v>
+        <v>16.79876475369259</v>
       </c>
       <c r="C3">
-        <v>10.91631794629444</v>
+        <v>9.145377902845432</v>
       </c>
       <c r="D3">
-        <v>6.511420174157595</v>
+        <v>5.945417838199975</v>
       </c>
       <c r="E3">
-        <v>10.83769996445721</v>
+        <v>9.104316470554025</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.129308180453799</v>
+        <v>3.743486420456252</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.62814899310871</v>
+        <v>16.31850307376125</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.62635284143547</v>
+        <v>17.0530054347049</v>
       </c>
       <c r="N3">
-        <v>21.15739694277746</v>
+        <v>25.59884364571214</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.83003045021726</v>
+        <v>16.64265921272538</v>
       </c>
       <c r="C4">
-        <v>10.42180223223389</v>
+        <v>9.014401978392014</v>
       </c>
       <c r="D4">
-        <v>6.216800004235531</v>
+        <v>5.881135945390999</v>
       </c>
       <c r="E4">
-        <v>10.28600187697832</v>
+        <v>8.98577502026577</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.1371598727335</v>
+        <v>3.746151279829294</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.03441448774709</v>
+        <v>16.21069923562996</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.05879191286125</v>
+        <v>16.96193496298504</v>
       </c>
       <c r="N4">
-        <v>20.92477915850282</v>
+        <v>25.53403865635141</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.5317464009652</v>
+        <v>16.57998003147256</v>
       </c>
       <c r="C5">
-        <v>10.21651143494346</v>
+        <v>8.961293080089947</v>
       </c>
       <c r="D5">
-        <v>6.102615617514494</v>
+        <v>5.855233556602746</v>
       </c>
       <c r="E5">
-        <v>10.05505117795686</v>
+        <v>8.937842373318322</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.140397919493289</v>
+        <v>3.747269488176869</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.78970451873927</v>
+        <v>16.16780325408534</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.82551765349964</v>
+        <v>16.92595440777768</v>
       </c>
       <c r="N5">
-        <v>20.83080705588663</v>
+        <v>25.50782450302697</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.48195006051382</v>
+        <v>16.56963104576401</v>
       </c>
       <c r="C6">
-        <v>10.18219705301631</v>
+        <v>8.952492878602497</v>
       </c>
       <c r="D6">
-        <v>6.083541879610201</v>
+        <v>5.850951245327931</v>
       </c>
       <c r="E6">
-        <v>10.01632722201695</v>
+        <v>8.929907904062945</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.140938023661927</v>
+        <v>3.747457117970608</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.74891005219478</v>
+        <v>16.16074423738657</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.78666849661334</v>
+        <v>16.92004915400371</v>
       </c>
       <c r="N6">
-        <v>20.81525196301727</v>
+        <v>25.50348359861693</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.82602569553412</v>
+        <v>16.64181000595994</v>
       </c>
       <c r="C7">
-        <v>10.41904880609304</v>
+        <v>9.013684548238849</v>
       </c>
       <c r="D7">
-        <v>6.215267730988487</v>
+        <v>5.880785382151601</v>
       </c>
       <c r="E7">
-        <v>10.2829122209778</v>
+        <v>8.98512697362232</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.137203381652625</v>
+        <v>3.746166229597968</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.03112514881517</v>
+        <v>16.2101164749757</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.05565368584783</v>
+        <v>16.96144509208842</v>
       </c>
       <c r="N7">
-        <v>20.92350852461781</v>
+        <v>25.5336843272982</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.30431983845352</v>
+        <v>16.96830909030308</v>
       </c>
       <c r="C8">
-        <v>11.43102269193922</v>
+        <v>9.285808475534436</v>
       </c>
       <c r="D8">
-        <v>6.846974297591106</v>
+        <v>6.01491101622795</v>
       </c>
       <c r="E8">
-        <v>11.40592265175304</v>
+        <v>9.231885186048437</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.121050014780895</v>
+        <v>3.740752647837418</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.25181138074183</v>
+        <v>16.43694658128909</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.22471846226419</v>
+        <v>17.15395746164693</v>
       </c>
       <c r="N8">
-        <v>21.40850837372624</v>
+        <v>25.66864190074444</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.09305068957075</v>
+        <v>17.63180222960969</v>
       </c>
       <c r="C9">
-        <v>13.42547094380598</v>
+        <v>9.821528698868205</v>
       </c>
       <c r="D9">
-        <v>8.034710501410856</v>
+        <v>6.28440427778762</v>
       </c>
       <c r="E9">
-        <v>13.42819085965522</v>
+        <v>9.722148466704349</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.090260835742787</v>
+        <v>3.731144090128612</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>18.68324205229424</v>
+        <v>16.91078385191446</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.95236304291381</v>
+        <v>17.56446923597418</v>
       </c>
       <c r="N9">
-        <v>22.38820706564605</v>
+        <v>25.93890206268666</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.22181807881819</v>
+        <v>18.12847086893259</v>
       </c>
       <c r="C10">
-        <v>14.81246832791068</v>
+        <v>10.2117639827472</v>
       </c>
       <c r="D10">
-        <v>8.844069120251643</v>
+        <v>6.484203775544437</v>
       </c>
       <c r="E10">
-        <v>14.81722191914147</v>
+        <v>10.08213854310803</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.067861672697591</v>
+        <v>3.724690258793085</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.59771747601963</v>
+        <v>17.27360052530434</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.88634122246375</v>
+        <v>17.8838817310943</v>
       </c>
       <c r="N10">
-        <v>23.12892542804034</v>
+        <v>26.14045884747224</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.16191348490089</v>
+        <v>18.35537491963554</v>
       </c>
       <c r="C11">
-        <v>15.42627331870685</v>
+        <v>10.38765585448223</v>
       </c>
       <c r="D11">
-        <v>9.200159639510302</v>
+        <v>6.575049302385935</v>
       </c>
       <c r="E11">
-        <v>15.43152819603673</v>
+        <v>10.24504526829256</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.057634792464984</v>
+        <v>3.721883895293933</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.44198733716767</v>
+        <v>17.44118402934232</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.7394143434499</v>
+        <v>18.03253587884557</v>
       </c>
       <c r="N11">
-        <v>23.47156739536358</v>
+        <v>26.23270751843535</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.51422663164967</v>
+        <v>18.441351913655</v>
       </c>
       <c r="C12">
-        <v>15.65654052366735</v>
+        <v>10.45395770304382</v>
       </c>
       <c r="D12">
-        <v>9.333421541794248</v>
+        <v>6.609408645151616</v>
       </c>
       <c r="E12">
-        <v>15.66195849549232</v>
+        <v>10.30654711017473</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.053748305967977</v>
+        <v>3.720839680258875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.75824627309205</v>
+        <v>17.50495233596501</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.05903460740515</v>
+        <v>18.08926399436895</v>
       </c>
       <c r="N12">
-        <v>23.60225969154566</v>
+        <v>26.26771140308979</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.43850641754517</v>
+        <v>18.4228341944435</v>
       </c>
       <c r="C13">
-        <v>15.60703943219171</v>
+        <v>10.43969303186484</v>
       </c>
       <c r="D13">
-        <v>9.304788812511552</v>
+        <v>6.602011158664078</v>
       </c>
       <c r="E13">
-        <v>15.61242292774936</v>
+        <v>10.29331091088568</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.054586092492351</v>
+        <v>3.721063750202421</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.69028082644792</v>
+        <v>17.49120588847283</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.99034338492204</v>
+        <v>18.07702792544998</v>
       </c>
       <c r="N13">
-        <v>23.57406859112448</v>
+        <v>26.26016966637762</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.19096977963231</v>
+        <v>18.3624477113548</v>
       </c>
       <c r="C14">
-        <v>15.4452590795158</v>
+        <v>10.39311703862878</v>
       </c>
       <c r="D14">
-        <v>9.211153898067279</v>
+        <v>6.57787710387086</v>
       </c>
       <c r="E14">
-        <v>15.45052771640853</v>
+        <v>10.2501091740769</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.057315378342816</v>
+        <v>3.721797617195544</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.46807283403384</v>
+        <v>17.44642443592225</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.76577560073955</v>
+        <v>18.03719446190546</v>
       </c>
       <c r="N14">
-        <v>23.48229984307661</v>
+        <v>26.23558593300235</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.03887988188995</v>
+        <v>18.32546369406791</v>
       </c>
       <c r="C15">
-        <v>15.34589143868051</v>
+        <v>10.36454622111838</v>
       </c>
       <c r="D15">
-        <v>9.153598852842707</v>
+        <v>6.563087814447166</v>
       </c>
       <c r="E15">
-        <v>15.35108724508657</v>
+        <v>10.22362060572097</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.058985075945444</v>
+        <v>3.72224953650379</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.33152743692407</v>
+        <v>17.41903294472464</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.62778952199198</v>
+        <v>18.01285072351398</v>
       </c>
       <c r="N15">
-        <v>23.42621562312349</v>
+        <v>26.2205366986144</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.15984284199779</v>
+        <v>18.11365423336483</v>
       </c>
       <c r="C16">
-        <v>14.77203400752942</v>
+        <v>10.20023014270562</v>
       </c>
       <c r="D16">
-        <v>8.820567362989742</v>
+        <v>6.478262846566009</v>
       </c>
       <c r="E16">
-        <v>14.77674925365689</v>
+        <v>10.07146941190019</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.068528582198051</v>
+        <v>3.724876256301222</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.54203779391841</v>
+        <v>17.26269474145002</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.83008802082182</v>
+        <v>17.87423036419606</v>
       </c>
       <c r="N16">
-        <v>23.10665724257314</v>
+        <v>26.13444066232163</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.61358954641856</v>
+        <v>17.98390194245119</v>
       </c>
       <c r="C17">
-        <v>14.41579554368595</v>
+        <v>10.09895893258639</v>
       </c>
       <c r="D17">
-        <v>8.613271253072018</v>
+        <v>6.426188414275844</v>
       </c>
       <c r="E17">
-        <v>14.42013209331863</v>
+        <v>9.977863666143159</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.074368062463649</v>
+        <v>3.7265207432951</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.05114295034603</v>
+        <v>17.16739560739503</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.33416416627504</v>
+        <v>17.79001724058291</v>
       </c>
       <c r="N17">
-        <v>22.9121531782255</v>
+        <v>26.08176040331335</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.29670892544685</v>
+        <v>17.90936786872223</v>
       </c>
       <c r="C18">
-        <v>14.20926192591629</v>
+        <v>10.04056108867687</v>
       </c>
       <c r="D18">
-        <v>8.492891379139111</v>
+        <v>6.396234451942363</v>
       </c>
       <c r="E18">
-        <v>14.21333883611228</v>
+        <v>9.923947320048718</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.077723833320984</v>
+        <v>3.72747880723662</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.76626003600375</v>
+        <v>17.11282419864663</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.04637994938723</v>
+        <v>17.74189836839998</v>
       </c>
       <c r="N18">
-        <v>22.80080565719333</v>
+        <v>26.05151333498483</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.18894589387705</v>
+        <v>17.88415105226931</v>
       </c>
       <c r="C19">
-        <v>14.13904417586479</v>
+        <v>10.02076515968605</v>
       </c>
       <c r="D19">
-        <v>8.451931124754466</v>
+        <v>6.38609329559393</v>
       </c>
       <c r="E19">
-        <v>14.14302493543373</v>
+        <v>9.9056810065933</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.078859769078045</v>
+        <v>3.727805290308187</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>19.66935782638152</v>
+        <v>17.09439057181653</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.94849278596699</v>
+        <v>17.72566220178545</v>
       </c>
       <c r="N19">
-        <v>22.76319238104547</v>
+        <v>26.04128161297648</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.67201498484172</v>
+        <v>17.99770498693924</v>
       </c>
       <c r="C20">
-        <v>14.45388492277319</v>
+        <v>10.10975540546707</v>
       </c>
       <c r="D20">
-        <v>8.63545609275616</v>
+        <v>6.431732308467311</v>
       </c>
       <c r="E20">
-        <v>14.45826586356827</v>
+        <v>9.987836584646487</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.073746801182018</v>
+        <v>3.726344423292601</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.10365914368451</v>
+        <v>17.17751571399067</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.38721634505936</v>
+        <v>17.79894926073183</v>
       </c>
       <c r="N20">
-        <v>22.93280322425971</v>
+        <v>26.08736286385206</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.26377372318733</v>
+        <v>18.38018390777281</v>
       </c>
       <c r="C21">
-        <v>15.49283407099102</v>
+        <v>10.40680634136942</v>
       </c>
       <c r="D21">
-        <v>9.238698307980346</v>
+        <v>6.584967273338796</v>
       </c>
       <c r="E21">
-        <v>15.49813690014951</v>
+        <v>10.26280415332231</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.056514169068651</v>
+        <v>3.721581561789685</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.53343091905023</v>
+        <v>17.45956992363385</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.83182575188787</v>
+        <v>18.04888305146048</v>
       </c>
       <c r="N21">
-        <v>23.50922785940939</v>
+        <v>26.24280490990272</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.28286239383224</v>
+        <v>18.63042910251563</v>
       </c>
       <c r="C22">
-        <v>16.15939290931514</v>
+        <v>10.59914162074905</v>
       </c>
       <c r="D22">
-        <v>9.623822256155186</v>
+        <v>6.684855636158299</v>
       </c>
       <c r="E22">
-        <v>16.16515829147357</v>
+        <v>10.44139176049689</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.045166316792095</v>
+        <v>3.718576492742545</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.44799858180477</v>
+        <v>17.64567827062366</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.75627151190652</v>
+        <v>18.21474902460469</v>
       </c>
       <c r="N22">
-        <v>23.89152273061301</v>
+        <v>26.34480655454643</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.74074898934969</v>
+        <v>18.49687118531545</v>
       </c>
       <c r="C23">
-        <v>15.80466447887336</v>
+        <v>10.49667584204618</v>
       </c>
       <c r="D23">
-        <v>9.419051599486362</v>
+        <v>6.631578430730693</v>
       </c>
       <c r="E23">
-        <v>15.81018454780123</v>
+        <v>10.34619899109723</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.051233842079315</v>
+        <v>3.720170539821609</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>21.96155142861169</v>
+        <v>17.54620547048389</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.26452265987978</v>
+        <v>18.12600798538734</v>
       </c>
       <c r="N23">
-        <v>23.68692570074081</v>
+        <v>26.29033180204189</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.64560969444742</v>
+        <v>17.99146443011321</v>
       </c>
       <c r="C24">
-        <v>14.43667011664365</v>
+        <v>10.1048748618718</v>
       </c>
       <c r="D24">
-        <v>8.625430083982918</v>
+        <v>6.429225960024016</v>
       </c>
       <c r="E24">
-        <v>14.44103112130433</v>
+        <v>9.983328138333885</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.074027677228693</v>
+        <v>3.726424098226965</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.07992488884959</v>
+        <v>17.1729397325568</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.36323980529599</v>
+        <v>17.7949101678032</v>
       </c>
       <c r="N24">
-        <v>22.92346586646221</v>
+        <v>26.08482986767438</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.32577703503159</v>
+        <v>17.4503361782647</v>
       </c>
       <c r="C25">
-        <v>12.89777638209506</v>
+        <v>9.676870248606726</v>
       </c>
       <c r="D25">
-        <v>7.72500719560542</v>
+        <v>6.211029847245408</v>
       </c>
       <c r="E25">
-        <v>12.89913483623094</v>
+        <v>9.589268149034417</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.098525531134147</v>
+        <v>3.733636493795135</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.95237244281792</v>
+        <v>16.77979646640498</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.21400553671304</v>
+        <v>17.45011394038411</v>
       </c>
       <c r="N25">
-        <v>22.11980509387067</v>
+        <v>25.86523149045736</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_176/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_176/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.05853031862614</v>
+        <v>18.69481183477872</v>
       </c>
       <c r="C2">
-        <v>9.359861101404508</v>
+        <v>11.70134423282061</v>
       </c>
       <c r="D2">
-        <v>6.051771177070816</v>
+        <v>7.01891922196229</v>
       </c>
       <c r="E2">
-        <v>9.299332100212366</v>
+        <v>11.69759542464742</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.739354338117113</v>
+        <v>2.116743760187939</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.50047868558372</v>
+        <v>16.57621664374523</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.20843302999209</v>
+        <v>16.53678044155288</v>
       </c>
       <c r="N2">
-        <v>25.70560317131548</v>
+        <v>21.54175693721791</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.79876475369259</v>
+        <v>17.55092999432428</v>
       </c>
       <c r="C3">
-        <v>9.145377902845432</v>
+        <v>10.91631794629446</v>
       </c>
       <c r="D3">
-        <v>5.945417838199975</v>
+        <v>6.511420174157581</v>
       </c>
       <c r="E3">
-        <v>9.104316470554025</v>
+        <v>10.83769996445726</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.743486420456252</v>
+        <v>2.129308180453529</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.31850307376125</v>
+        <v>15.62814899310876</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.0530054347049</v>
+        <v>15.62635284143549</v>
       </c>
       <c r="N3">
-        <v>25.59884364571214</v>
+        <v>21.15739694277757</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.64265921272538</v>
+        <v>16.83003045021724</v>
       </c>
       <c r="C4">
-        <v>9.014401978392014</v>
+        <v>10.42180223223388</v>
       </c>
       <c r="D4">
-        <v>5.881135945390999</v>
+        <v>6.216800004235597</v>
       </c>
       <c r="E4">
-        <v>8.98577502026577</v>
+        <v>10.28600187697835</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.746151279829294</v>
+        <v>2.137159872733111</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.21069923562996</v>
+        <v>15.03441448774709</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.96193496298504</v>
+        <v>15.05879191286125</v>
       </c>
       <c r="N4">
-        <v>25.53403865635141</v>
+        <v>20.9247791585028</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.57998003147256</v>
+        <v>16.53174640096518</v>
       </c>
       <c r="C5">
-        <v>8.961293080089947</v>
+        <v>10.21651143494341</v>
       </c>
       <c r="D5">
-        <v>5.855233556602746</v>
+        <v>6.102615617514496</v>
       </c>
       <c r="E5">
-        <v>8.937842373318322</v>
+        <v>10.0550511779569</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.747269488176869</v>
+        <v>2.140397919493557</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.16780325408534</v>
+        <v>14.78970451873927</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.92595440777768</v>
+        <v>14.8255176534996</v>
       </c>
       <c r="N5">
-        <v>25.50782450302697</v>
+        <v>20.8308070558866</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.56963104576401</v>
+        <v>16.48195006051381</v>
       </c>
       <c r="C6">
-        <v>8.952492878602497</v>
+        <v>10.18219705301632</v>
       </c>
       <c r="D6">
-        <v>5.850951245327931</v>
+        <v>6.083541879610223</v>
       </c>
       <c r="E6">
-        <v>8.929907904062945</v>
+        <v>10.01632722201692</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.747457117970608</v>
+        <v>2.140938023661927</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.16074423738657</v>
+        <v>14.74891005219476</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.92004915400371</v>
+        <v>14.78666849661333</v>
       </c>
       <c r="N6">
-        <v>25.50348359861693</v>
+        <v>20.81525196301726</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.64181000595994</v>
+        <v>16.82602569553412</v>
       </c>
       <c r="C7">
-        <v>9.013684548238849</v>
+        <v>10.41904880609305</v>
       </c>
       <c r="D7">
-        <v>5.880785382151601</v>
+        <v>6.215267730988494</v>
       </c>
       <c r="E7">
-        <v>8.98512697362232</v>
+        <v>10.28291222097772</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.746166229597968</v>
+        <v>2.137203381652487</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.2101164749757</v>
+        <v>15.03112514881517</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.96144509208842</v>
+        <v>15.05565368584783</v>
       </c>
       <c r="N7">
-        <v>25.5336843272982</v>
+        <v>20.92350852461769</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.96830909030308</v>
+        <v>18.30431983845352</v>
       </c>
       <c r="C8">
-        <v>9.285808475534436</v>
+        <v>11.43102269193921</v>
       </c>
       <c r="D8">
-        <v>6.01491101622795</v>
+        <v>6.84697429759126</v>
       </c>
       <c r="E8">
-        <v>9.231885186048437</v>
+        <v>11.40592265175304</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.740752647837418</v>
+        <v>2.121050014780763</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.43694658128909</v>
+        <v>16.25181138074183</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.15395746164693</v>
+        <v>16.22471846226419</v>
       </c>
       <c r="N8">
-        <v>25.66864190074444</v>
+        <v>21.40850837372626</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.63180222960969</v>
+        <v>21.09305068957083</v>
       </c>
       <c r="C9">
-        <v>9.821528698868205</v>
+        <v>13.42547094380584</v>
       </c>
       <c r="D9">
-        <v>6.28440427778762</v>
+        <v>8.034710501410842</v>
       </c>
       <c r="E9">
-        <v>9.722148466704349</v>
+        <v>13.42819085965516</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.731144090128612</v>
+        <v>2.090260835742784</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.91078385191446</v>
+        <v>18.68324205229426</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.56446923597418</v>
+        <v>18.9523630429138</v>
       </c>
       <c r="N9">
-        <v>25.93890206268666</v>
+        <v>22.38820706564601</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.12847086893259</v>
+        <v>23.2218180788184</v>
       </c>
       <c r="C10">
-        <v>10.2117639827472</v>
+        <v>14.81246832791067</v>
       </c>
       <c r="D10">
-        <v>6.484203775544437</v>
+        <v>8.844069120251746</v>
       </c>
       <c r="E10">
-        <v>10.08213854310803</v>
+        <v>14.81722191914153</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.724690258793085</v>
+        <v>2.067861672697192</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.27360052530434</v>
+        <v>20.59771747601982</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.8838817310943</v>
+        <v>20.88634122246392</v>
       </c>
       <c r="N10">
-        <v>26.14045884747224</v>
+        <v>23.1289254280403</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.35537491963554</v>
+        <v>24.16191348490098</v>
       </c>
       <c r="C11">
-        <v>10.38765585448223</v>
+        <v>15.42627331870671</v>
       </c>
       <c r="D11">
-        <v>6.575049302385935</v>
+        <v>9.200159639510224</v>
       </c>
       <c r="E11">
-        <v>10.24504526829256</v>
+        <v>15.43152819603676</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.721883895293933</v>
+        <v>2.057634792464586</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.44118402934232</v>
+        <v>21.4419873371677</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.03253587884557</v>
+        <v>21.73941434344995</v>
       </c>
       <c r="N11">
-        <v>26.23270751843535</v>
+        <v>23.47156739536363</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.441351913655</v>
+        <v>24.5142266316497</v>
       </c>
       <c r="C12">
-        <v>10.45395770304382</v>
+        <v>15.65654052366732</v>
       </c>
       <c r="D12">
-        <v>6.609408645151616</v>
+        <v>9.333421541794308</v>
       </c>
       <c r="E12">
-        <v>10.30654711017473</v>
+        <v>15.66195849549226</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.720839680258875</v>
+        <v>2.053748305968104</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.50495233596501</v>
+        <v>21.75824627309209</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.08926399436895</v>
+        <v>22.05903460740513</v>
       </c>
       <c r="N12">
-        <v>26.26771140308979</v>
+        <v>23.60225969154569</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.4228341944435</v>
+        <v>24.43850641754522</v>
       </c>
       <c r="C13">
-        <v>10.43969303186484</v>
+        <v>15.60703943219169</v>
       </c>
       <c r="D13">
-        <v>6.602011158664078</v>
+        <v>9.304788812511461</v>
       </c>
       <c r="E13">
-        <v>10.29331091088568</v>
+        <v>15.61242292774935</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.721063750202421</v>
+        <v>2.054586092492485</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.49120588847283</v>
+        <v>21.69028082644793</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.07702792544998</v>
+        <v>21.99034338492202</v>
       </c>
       <c r="N13">
-        <v>26.26016966637762</v>
+        <v>23.57406859112447</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.3624477113548</v>
+        <v>24.1909697796322</v>
       </c>
       <c r="C14">
-        <v>10.39311703862878</v>
+        <v>15.44525907951594</v>
       </c>
       <c r="D14">
-        <v>6.57787710387086</v>
+        <v>9.211153898067231</v>
       </c>
       <c r="E14">
-        <v>10.2501091740769</v>
+        <v>15.45052771640853</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.721797617195544</v>
+        <v>2.057315378342819</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.44642443592225</v>
+        <v>21.46807283403377</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.03719446190546</v>
+        <v>21.76577560073949</v>
       </c>
       <c r="N14">
-        <v>26.23558593300235</v>
+        <v>23.48229984307667</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.32546369406791</v>
+        <v>24.03887988189006</v>
       </c>
       <c r="C15">
-        <v>10.36454622111838</v>
+        <v>15.34589143868052</v>
       </c>
       <c r="D15">
-        <v>6.563087814447166</v>
+        <v>9.153598852842723</v>
       </c>
       <c r="E15">
-        <v>10.22362060572097</v>
+        <v>15.35108724508664</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.72224953650379</v>
+        <v>2.058985075945186</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.41903294472464</v>
+        <v>21.33152743692417</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.01285072351398</v>
+        <v>21.6277895219921</v>
       </c>
       <c r="N15">
-        <v>26.2205366986144</v>
+        <v>23.42621562312346</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.11365423336483</v>
+        <v>23.1598428419977</v>
       </c>
       <c r="C16">
-        <v>10.20023014270562</v>
+        <v>14.77203400752951</v>
       </c>
       <c r="D16">
-        <v>6.478262846566009</v>
+        <v>8.820567362989639</v>
       </c>
       <c r="E16">
-        <v>10.07146941190019</v>
+        <v>14.77674925365691</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.724876256301222</v>
+        <v>2.068528582198047</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.26269474145002</v>
+        <v>20.54203779391835</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.87423036419606</v>
+        <v>20.83008802082182</v>
       </c>
       <c r="N16">
-        <v>26.13444066232163</v>
+        <v>23.10665724257311</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.98390194245119</v>
+        <v>22.61358954641855</v>
       </c>
       <c r="C17">
-        <v>10.09895893258639</v>
+        <v>14.41579554368599</v>
       </c>
       <c r="D17">
-        <v>6.426188414275844</v>
+        <v>8.613271253072167</v>
       </c>
       <c r="E17">
-        <v>9.977863666143159</v>
+        <v>14.42013209331857</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.7265207432951</v>
+        <v>2.074368062463916</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.16739560739503</v>
+        <v>20.05114295034602</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.79001724058291</v>
+        <v>20.33416416627501</v>
       </c>
       <c r="N17">
-        <v>26.08176040331335</v>
+        <v>22.91215317822562</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.90936786872223</v>
+        <v>22.2967089254468</v>
       </c>
       <c r="C18">
-        <v>10.04056108867687</v>
+        <v>14.20926192591605</v>
       </c>
       <c r="D18">
-        <v>6.396234451942363</v>
+        <v>8.492891379139152</v>
       </c>
       <c r="E18">
-        <v>9.923947320048718</v>
+        <v>14.21333883611235</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.72747880723662</v>
+        <v>2.077723833320591</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.11282419864663</v>
+        <v>19.76626003600366</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.74189836839998</v>
+        <v>20.04637994938718</v>
       </c>
       <c r="N18">
-        <v>26.05151333498483</v>
+        <v>22.80080565719333</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.88415105226931</v>
+        <v>22.1889458938771</v>
       </c>
       <c r="C19">
-        <v>10.02076515968605</v>
+        <v>14.13904417586479</v>
       </c>
       <c r="D19">
-        <v>6.38609329559393</v>
+        <v>8.451931124754571</v>
       </c>
       <c r="E19">
-        <v>9.9056810065933</v>
+        <v>14.14302493543392</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.727805290308187</v>
+        <v>2.078859769078174</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.09439057181653</v>
+        <v>19.66935782638155</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.72566220178545</v>
+        <v>19.94849278596705</v>
       </c>
       <c r="N19">
-        <v>26.04128161297648</v>
+        <v>22.76319238104547</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.99770498693924</v>
+        <v>22.67201498484173</v>
       </c>
       <c r="C20">
-        <v>10.10975540546707</v>
+        <v>14.45388492277312</v>
       </c>
       <c r="D20">
-        <v>6.431732308467311</v>
+        <v>8.635456092756202</v>
       </c>
       <c r="E20">
-        <v>9.987836584646487</v>
+        <v>14.45826586356823</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.726344423292601</v>
+        <v>2.07374680118215</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.17751571399067</v>
+        <v>20.10365914368447</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.79894926073183</v>
+        <v>20.38721634505933</v>
       </c>
       <c r="N20">
-        <v>26.08736286385206</v>
+        <v>22.93280322425975</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.38018390777281</v>
+        <v>24.26377372318738</v>
       </c>
       <c r="C21">
-        <v>10.40680634136942</v>
+        <v>15.49283407099078</v>
       </c>
       <c r="D21">
-        <v>6.584967273338796</v>
+        <v>9.238698307980451</v>
       </c>
       <c r="E21">
-        <v>10.26280415332231</v>
+        <v>15.49813690014955</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.721581561789685</v>
+        <v>2.056514169068266</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.45956992363385</v>
+        <v>21.53343091905019</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.04888305146048</v>
+        <v>21.83182575188788</v>
       </c>
       <c r="N21">
-        <v>26.24280490990272</v>
+        <v>23.50922785940934</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.63042910251563</v>
+        <v>25.2828623938323</v>
       </c>
       <c r="C22">
-        <v>10.59914162074905</v>
+        <v>16.15939290931534</v>
       </c>
       <c r="D22">
-        <v>6.684855636158299</v>
+        <v>9.62382225615511</v>
       </c>
       <c r="E22">
-        <v>10.44139176049689</v>
+        <v>16.16515829147353</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.718576492742545</v>
+        <v>2.0451663167925</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.64567827062366</v>
+        <v>22.44799858180487</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.21474902460469</v>
+        <v>22.75627151190661</v>
       </c>
       <c r="N22">
-        <v>26.34480655454643</v>
+        <v>23.89152273061302</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.49687118531545</v>
+        <v>24.74074898934972</v>
       </c>
       <c r="C23">
-        <v>10.49667584204618</v>
+        <v>15.8046644788734</v>
       </c>
       <c r="D23">
-        <v>6.631578430730693</v>
+        <v>9.419051599486366</v>
       </c>
       <c r="E23">
-        <v>10.34619899109723</v>
+        <v>15.81018454780133</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.720170539821609</v>
+        <v>2.051233842079443</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.54620547048389</v>
+        <v>21.96155142861173</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.12600798538734</v>
+        <v>22.26452265987986</v>
       </c>
       <c r="N23">
-        <v>26.29033180204189</v>
+        <v>23.68692570074079</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.99146443011321</v>
+        <v>22.64560969444755</v>
       </c>
       <c r="C24">
-        <v>10.1048748618718</v>
+        <v>14.43667011664369</v>
       </c>
       <c r="D24">
-        <v>6.429225960024016</v>
+        <v>8.625430083983037</v>
       </c>
       <c r="E24">
-        <v>9.983328138333885</v>
+        <v>14.44103112130433</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.726424098226965</v>
+        <v>2.074027677228294</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.1729397325568</v>
+        <v>20.07992488884974</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.7949101678032</v>
+        <v>20.3632398052961</v>
       </c>
       <c r="N24">
-        <v>26.08482986767438</v>
+        <v>22.92346586646217</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.4503361782647</v>
+        <v>20.32577703503166</v>
       </c>
       <c r="C25">
-        <v>9.676870248606726</v>
+        <v>12.89777638209511</v>
       </c>
       <c r="D25">
-        <v>6.211029847245408</v>
+        <v>7.72500719560542</v>
       </c>
       <c r="E25">
-        <v>9.589268149034417</v>
+        <v>12.89913483623102</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.733636493795135</v>
+        <v>2.098525531134018</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.77979646640498</v>
+        <v>17.95237244281812</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.45011394038411</v>
+        <v>18.21400553671321</v>
       </c>
       <c r="N25">
-        <v>25.86523149045736</v>
+        <v>22.11980509387051</v>
       </c>
       <c r="O25">
         <v>0</v>
